--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Lgals1-Itgb1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Lgals1-Itgb1.xlsx
@@ -534,16 +534,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>16.88469033333334</v>
+        <v>1.576331333333333</v>
       </c>
       <c r="H2">
-        <v>50.654071</v>
+        <v>4.728994</v>
       </c>
       <c r="I2">
-        <v>0.06267206522474383</v>
+        <v>0.01463337290888519</v>
       </c>
       <c r="J2">
-        <v>0.06267206522474383</v>
+        <v>0.01463337290888519</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>112.513392</v>
+        <v>61.04160633333334</v>
       </c>
       <c r="N2">
-        <v>337.540176</v>
+        <v>183.124819</v>
       </c>
       <c r="O2">
-        <v>0.3275312977368564</v>
+        <v>0.2043613460574534</v>
       </c>
       <c r="P2">
-        <v>0.3275312977368564</v>
+        <v>0.2043613460574534</v>
       </c>
       <c r="Q2">
-        <v>1899.753782272944</v>
+        <v>96.22179670023179</v>
       </c>
       <c r="R2">
-        <v>17097.7840404565</v>
+        <v>865.9961703020862</v>
       </c>
       <c r="S2">
-        <v>0.02052706285490925</v>
+        <v>0.00299049578502045</v>
       </c>
       <c r="T2">
-        <v>0.02052706285490925</v>
+        <v>0.00299049578502045</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>16.88469033333334</v>
+        <v>1.576331333333333</v>
       </c>
       <c r="H3">
-        <v>50.654071</v>
+        <v>4.728994</v>
       </c>
       <c r="I3">
-        <v>0.06267206522474383</v>
+        <v>0.01463337290888519</v>
       </c>
       <c r="J3">
-        <v>0.06267206522474383</v>
+        <v>0.01463337290888519</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>318.943398</v>
       </c>
       <c r="O3">
-        <v>0.3094859589441663</v>
+        <v>0.3559304658284363</v>
       </c>
       <c r="P3">
-        <v>0.3094859589441664</v>
+        <v>0.3559304658284363</v>
       </c>
       <c r="Q3">
-        <v>1795.086836363696</v>
+        <v>167.5868239424013</v>
       </c>
       <c r="R3">
-        <v>16155.78152727326</v>
+        <v>1508.281415481612</v>
       </c>
       <c r="S3">
-        <v>0.01939612420509118</v>
+        <v>0.005208463236100725</v>
       </c>
       <c r="T3">
-        <v>0.01939612420509119</v>
+        <v>0.005208463236100727</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>16.88469033333334</v>
+        <v>1.576331333333333</v>
       </c>
       <c r="H4">
-        <v>50.654071</v>
+        <v>4.728994</v>
       </c>
       <c r="I4">
-        <v>0.06267206522474383</v>
+        <v>0.01463337290888519</v>
       </c>
       <c r="J4">
-        <v>0.06267206522474383</v>
+        <v>0.01463337290888519</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>124.6916553333333</v>
+        <v>131.3384093333333</v>
       </c>
       <c r="N4">
-        <v>374.074966</v>
+        <v>394.015228</v>
       </c>
       <c r="O4">
-        <v>0.3629827433189773</v>
+        <v>0.4397081881141102</v>
       </c>
       <c r="P4">
-        <v>0.3629827433189773</v>
+        <v>0.4397081881141103</v>
       </c>
       <c r="Q4">
-        <v>2105.379987454065</v>
+        <v>207.0328499022924</v>
       </c>
       <c r="R4">
-        <v>18948.41988708659</v>
+        <v>1863.295649120632</v>
       </c>
       <c r="S4">
-        <v>0.02274887816474339</v>
+        <v>0.006434413887764012</v>
       </c>
       <c r="T4">
-        <v>0.0227488781647434</v>
+        <v>0.006434413887764014</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,16 +720,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>74.31489566666667</v>
+        <v>74.31489566666666</v>
       </c>
       <c r="H5">
         <v>222.944687</v>
       </c>
       <c r="I5">
-        <v>0.2758397042791309</v>
+        <v>0.6898788078237544</v>
       </c>
       <c r="J5">
-        <v>0.2758397042791309</v>
+        <v>0.6898788078237544</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>112.513392</v>
+        <v>61.04160633333334</v>
       </c>
       <c r="N5">
-        <v>337.540176</v>
+        <v>183.124819</v>
       </c>
       <c r="O5">
-        <v>0.3275312977368564</v>
+        <v>0.2043613460574534</v>
       </c>
       <c r="P5">
-        <v>0.3275312977368564</v>
+        <v>0.2043613460574534</v>
       </c>
       <c r="Q5">
-        <v>8361.420987582769</v>
+        <v>4536.300605987406</v>
       </c>
       <c r="R5">
-        <v>75252.78888824492</v>
+        <v>40826.70545388666</v>
       </c>
       <c r="S5">
-        <v>0.09034613630989444</v>
+        <v>0.1409845617833737</v>
       </c>
       <c r="T5">
-        <v>0.09034613630989444</v>
+        <v>0.1409845617833737</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,16 +782,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>74.31489566666667</v>
+        <v>74.31489566666666</v>
       </c>
       <c r="H6">
         <v>222.944687</v>
       </c>
       <c r="I6">
-        <v>0.2758397042791309</v>
+        <v>0.6898788078237544</v>
       </c>
       <c r="J6">
-        <v>0.2758397042791309</v>
+        <v>0.6898788078237544</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,22 +806,22 @@
         <v>318.943398</v>
       </c>
       <c r="O6">
-        <v>0.3094859589441663</v>
+        <v>0.3559304658284363</v>
       </c>
       <c r="P6">
-        <v>0.3094859589441664</v>
+        <v>0.3559304658284363</v>
       </c>
       <c r="Q6">
-        <v>7900.748448647381</v>
+        <v>7900.74844864738</v>
       </c>
       <c r="R6">
         <v>71106.73603782643</v>
       </c>
       <c r="S6">
-        <v>0.08536851539370208</v>
+        <v>0.2455488854338752</v>
       </c>
       <c r="T6">
-        <v>0.08536851539370209</v>
+        <v>0.2455488854338752</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,16 +844,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>74.31489566666667</v>
+        <v>74.31489566666666</v>
       </c>
       <c r="H7">
         <v>222.944687</v>
       </c>
       <c r="I7">
-        <v>0.2758397042791309</v>
+        <v>0.6898788078237544</v>
       </c>
       <c r="J7">
-        <v>0.2758397042791309</v>
+        <v>0.6898788078237544</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>124.6916553333333</v>
+        <v>131.3384093333333</v>
       </c>
       <c r="N7">
-        <v>374.074966</v>
+        <v>394.015228</v>
       </c>
       <c r="O7">
-        <v>0.3629827433189773</v>
+        <v>0.4397081881141102</v>
       </c>
       <c r="P7">
-        <v>0.3629827433189773</v>
+        <v>0.4397081881141103</v>
       </c>
       <c r="Q7">
-        <v>9266.447356600629</v>
+        <v>9760.400186632623</v>
       </c>
       <c r="R7">
-        <v>83398.02620940565</v>
+        <v>87843.60167969363</v>
       </c>
       <c r="S7">
-        <v>0.1001250525755344</v>
+        <v>0.3033453606065055</v>
       </c>
       <c r="T7">
-        <v>0.1001250525755344</v>
+        <v>0.3033453606065055</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,16 +906,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>178.2137526666667</v>
+        <v>31.83044066666666</v>
       </c>
       <c r="H8">
-        <v>534.641258</v>
+        <v>95.491322</v>
       </c>
       <c r="I8">
-        <v>0.6614882304961253</v>
+        <v>0.2954878192673605</v>
       </c>
       <c r="J8">
-        <v>0.6614882304961253</v>
+        <v>0.2954878192673605</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>112.513392</v>
+        <v>61.04160633333334</v>
       </c>
       <c r="N8">
-        <v>337.540176</v>
+        <v>183.124819</v>
       </c>
       <c r="O8">
-        <v>0.3275312977368564</v>
+        <v>0.2043613460574534</v>
       </c>
       <c r="P8">
-        <v>0.3275312977368564</v>
+        <v>0.2043613460574534</v>
       </c>
       <c r="Q8">
-        <v>20051.43381357571</v>
+        <v>1942.981228591191</v>
       </c>
       <c r="R8">
-        <v>180462.9043221814</v>
+        <v>17486.83105732072</v>
       </c>
       <c r="S8">
-        <v>0.2166580985720527</v>
+        <v>0.06038628848905932</v>
       </c>
       <c r="T8">
-        <v>0.2166580985720527</v>
+        <v>0.06038628848905932</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,16 +968,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>178.2137526666667</v>
+        <v>31.83044066666666</v>
       </c>
       <c r="H9">
-        <v>534.641258</v>
+        <v>95.491322</v>
       </c>
       <c r="I9">
-        <v>0.6614882304961253</v>
+        <v>0.2954878192673605</v>
       </c>
       <c r="J9">
-        <v>0.6614882304961253</v>
+        <v>0.2954878192673605</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,22 +992,22 @@
         <v>318.943398</v>
       </c>
       <c r="O9">
-        <v>0.3094859589441663</v>
+        <v>0.3559304658284363</v>
       </c>
       <c r="P9">
-        <v>0.3094859589441664</v>
+        <v>0.3559304658284363</v>
       </c>
       <c r="Q9">
-        <v>18946.69994861274</v>
+        <v>3384.03630202135</v>
       </c>
       <c r="R9">
-        <v>170520.2995375147</v>
+        <v>30456.32671819215</v>
       </c>
       <c r="S9">
-        <v>0.204721319345373</v>
+        <v>0.1051731171584604</v>
       </c>
       <c r="T9">
-        <v>0.2047213193453731</v>
+        <v>0.1051731171584604</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,16 +1030,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>178.2137526666667</v>
+        <v>31.83044066666666</v>
       </c>
       <c r="H10">
-        <v>534.641258</v>
+        <v>95.491322</v>
       </c>
       <c r="I10">
-        <v>0.6614882304961253</v>
+        <v>0.2954878192673605</v>
       </c>
       <c r="J10">
-        <v>0.6614882304961253</v>
+        <v>0.2954878192673605</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1048,28 +1048,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>124.6916553333333</v>
+        <v>131.3384093333333</v>
       </c>
       <c r="N10">
-        <v>374.074966</v>
+        <v>394.015228</v>
       </c>
       <c r="O10">
-        <v>0.3629827433189773</v>
+        <v>0.4397081881141102</v>
       </c>
       <c r="P10">
-        <v>0.3629827433189773</v>
+        <v>0.4397081881141103</v>
       </c>
       <c r="Q10">
-        <v>22221.76782317191</v>
+        <v>4180.559445539046</v>
       </c>
       <c r="R10">
-        <v>199995.9104085472</v>
+        <v>37625.03500985141</v>
       </c>
       <c r="S10">
-        <v>0.2401088125786995</v>
+        <v>0.1299284136198408</v>
       </c>
       <c r="T10">
-        <v>0.2401088125786996</v>
+        <v>0.1299284136198408</v>
       </c>
     </row>
   </sheetData>
